--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Penk-Ogfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Penk-Ogfr.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8602620000000001</v>
+        <v>0.5045503333333333</v>
       </c>
       <c r="H2">
-        <v>2.580786</v>
+        <v>1.513651</v>
       </c>
       <c r="I2">
-        <v>0.0071293973606893</v>
+        <v>0.004193610593465892</v>
       </c>
       <c r="J2">
-        <v>0.0071293973606893</v>
+        <v>0.004193610593465892</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.736318</v>
+        <v>3.798569</v>
       </c>
       <c r="N2">
-        <v>32.208954</v>
+        <v>11.395707</v>
       </c>
       <c r="O2">
-        <v>0.5380467806526527</v>
+        <v>0.3335453021983209</v>
       </c>
       <c r="P2">
-        <v>0.5380467806526528</v>
+        <v>0.3335453021983208</v>
       </c>
       <c r="Q2">
-        <v>9.236046395316</v>
+        <v>1.916569255139667</v>
       </c>
       <c r="R2">
-        <v>83.124417557844</v>
+        <v>17.249123296257</v>
       </c>
       <c r="S2">
-        <v>0.003835949297912397</v>
+        <v>0.001398759112699661</v>
       </c>
       <c r="T2">
-        <v>0.003835949297912397</v>
+        <v>0.00139875911269966</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8602620000000001</v>
+        <v>0.5045503333333333</v>
       </c>
       <c r="H3">
-        <v>2.580786</v>
+        <v>1.513651</v>
       </c>
       <c r="I3">
-        <v>0.0071293973606893</v>
+        <v>0.004193610593465892</v>
       </c>
       <c r="J3">
-        <v>0.0071293973606893</v>
+        <v>0.004193610593465892</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>13.473943</v>
       </c>
       <c r="O3">
-        <v>0.2250806298722816</v>
+        <v>0.3943739857244443</v>
       </c>
       <c r="P3">
-        <v>0.2250806298722816</v>
+        <v>0.3943739857244442</v>
       </c>
       <c r="Q3">
-        <v>3.863707051022</v>
+        <v>2.266094143988111</v>
       </c>
       <c r="R3">
-        <v>34.773363459198</v>
+        <v>20.39484729589299</v>
       </c>
       <c r="S3">
-        <v>0.00160468924855373</v>
+        <v>0.001653850924321396</v>
       </c>
       <c r="T3">
-        <v>0.00160468924855373</v>
+        <v>0.001653850924321396</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8602620000000001</v>
+        <v>0.5045503333333333</v>
       </c>
       <c r="H4">
-        <v>2.580786</v>
+        <v>1.513651</v>
       </c>
       <c r="I4">
-        <v>0.0071293973606893</v>
+        <v>0.004193610593465892</v>
       </c>
       <c r="J4">
-        <v>0.0071293973606893</v>
+        <v>0.004193610593465892</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.726614000000001</v>
+        <v>3.098581666666667</v>
       </c>
       <c r="N4">
-        <v>14.179842</v>
+        <v>9.295745</v>
       </c>
       <c r="O4">
-        <v>0.2368725894750656</v>
+        <v>0.2720807120772349</v>
       </c>
       <c r="P4">
-        <v>0.2368725894750656</v>
+        <v>0.2720807120772348</v>
       </c>
       <c r="Q4">
-        <v>4.066126412868001</v>
+        <v>1.563390412777222</v>
       </c>
       <c r="R4">
-        <v>36.59513771581201</v>
+        <v>14.070513714995</v>
       </c>
       <c r="S4">
-        <v>0.001688758814223173</v>
+        <v>0.001141000556444836</v>
       </c>
       <c r="T4">
-        <v>0.001688758814223173</v>
+        <v>0.001141000556444835</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>356.695877</v>
       </c>
       <c r="I5">
-        <v>0.9853690480545674</v>
+        <v>0.9882354706816875</v>
       </c>
       <c r="J5">
-        <v>0.9853690480545675</v>
+        <v>0.9882354706816875</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.736318</v>
+        <v>3.798569</v>
       </c>
       <c r="N5">
-        <v>32.208954</v>
+        <v>11.395707</v>
       </c>
       <c r="O5">
-        <v>0.5380467806526527</v>
+        <v>0.3335453021983209</v>
       </c>
       <c r="P5">
-        <v>0.5380467806526528</v>
+        <v>0.3335453021983208</v>
       </c>
       <c r="Q5">
-        <v>1276.533454920295</v>
+        <v>451.6446336000043</v>
       </c>
       <c r="R5">
-        <v>11488.80109428266</v>
+        <v>4064.801702400039</v>
       </c>
       <c r="S5">
-        <v>0.5301746440605289</v>
+        <v>0.3296212987116233</v>
       </c>
       <c r="T5">
-        <v>0.5301746440605292</v>
+        <v>0.3296212987116233</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>356.695877</v>
       </c>
       <c r="I6">
-        <v>0.9853690480545674</v>
+        <v>0.9882354706816875</v>
       </c>
       <c r="J6">
-        <v>0.9853690480545675</v>
+        <v>0.9882354706816875</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>13.473943</v>
       </c>
       <c r="O6">
-        <v>0.2250806298722816</v>
+        <v>0.3943739857244443</v>
       </c>
       <c r="P6">
-        <v>0.2250806298722816</v>
+        <v>0.3943739857244442</v>
       </c>
       <c r="Q6">
         <v>534.0111016703345</v>
@@ -818,10 +818,10 @@
         <v>4806.099915033011</v>
       </c>
       <c r="S6">
-        <v>0.2217874859927726</v>
+        <v>0.3897343614070093</v>
       </c>
       <c r="T6">
-        <v>0.2217874859927726</v>
+        <v>0.3897343614070092</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>356.695877</v>
       </c>
       <c r="I7">
-        <v>0.9853690480545674</v>
+        <v>0.9882354706816875</v>
       </c>
       <c r="J7">
-        <v>0.9853690480545675</v>
+        <v>0.9882354706816875</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.726614000000001</v>
+        <v>3.098581666666667</v>
       </c>
       <c r="N7">
-        <v>14.179842</v>
+        <v>9.295745</v>
       </c>
       <c r="O7">
-        <v>0.2368725894750656</v>
+        <v>0.2720807120772349</v>
       </c>
       <c r="P7">
-        <v>0.2368725894750656</v>
+        <v>0.2720807120772348</v>
       </c>
       <c r="Q7">
-        <v>561.987908656826</v>
+        <v>368.4171016825961</v>
       </c>
       <c r="R7">
-        <v>5057.891177911434</v>
+        <v>3315.753915143365</v>
       </c>
       <c r="S7">
-        <v>0.2334069180012658</v>
+        <v>0.2688798105630549</v>
       </c>
       <c r="T7">
-        <v>0.2334069180012658</v>
+        <v>0.2688798105630549</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9051680000000001</v>
+        <v>0.9108879999999999</v>
       </c>
       <c r="H8">
-        <v>2.715504</v>
+        <v>2.732664</v>
       </c>
       <c r="I8">
-        <v>0.007501554584743267</v>
+        <v>0.007570918724846665</v>
       </c>
       <c r="J8">
-        <v>0.007501554584743267</v>
+        <v>0.007570918724846665</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.736318</v>
+        <v>3.798569</v>
       </c>
       <c r="N8">
-        <v>32.208954</v>
+        <v>11.395707</v>
       </c>
       <c r="O8">
-        <v>0.5380467806526527</v>
+        <v>0.3335453021983209</v>
       </c>
       <c r="P8">
-        <v>0.5380467806526528</v>
+        <v>0.3335453021983208</v>
       </c>
       <c r="Q8">
-        <v>9.718171491424</v>
+        <v>3.460070919272</v>
       </c>
       <c r="R8">
-        <v>87.463543422816</v>
+        <v>31.140638273448</v>
       </c>
       <c r="S8">
-        <v>0.004036187294211261</v>
+        <v>0.002525244373997907</v>
       </c>
       <c r="T8">
-        <v>0.004036187294211262</v>
+        <v>0.002525244373997906</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9051680000000001</v>
+        <v>0.9108879999999999</v>
       </c>
       <c r="H9">
-        <v>2.715504</v>
+        <v>2.732664</v>
       </c>
       <c r="I9">
-        <v>0.007501554584743267</v>
+        <v>0.007570918724846665</v>
       </c>
       <c r="J9">
-        <v>0.007501554584743267</v>
+        <v>0.007570918724846665</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>13.473943</v>
       </c>
       <c r="O9">
-        <v>0.2250806298722816</v>
+        <v>0.3943739857244443</v>
       </c>
       <c r="P9">
-        <v>0.2250806298722816</v>
+        <v>0.3943739857244442</v>
       </c>
       <c r="Q9">
-        <v>4.065394012474666</v>
+        <v>4.091084330461332</v>
       </c>
       <c r="R9">
-        <v>36.588546112272</v>
+        <v>36.81975897415199</v>
       </c>
       <c r="S9">
-        <v>0.001688454630955316</v>
+        <v>0.002985773393113606</v>
       </c>
       <c r="T9">
-        <v>0.001688454630955316</v>
+        <v>0.002985773393113606</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9051680000000001</v>
+        <v>0.9108879999999999</v>
       </c>
       <c r="H10">
-        <v>2.715504</v>
+        <v>2.732664</v>
       </c>
       <c r="I10">
-        <v>0.007501554584743267</v>
+        <v>0.007570918724846665</v>
       </c>
       <c r="J10">
-        <v>0.007501554584743267</v>
+        <v>0.007570918724846665</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.726614000000001</v>
+        <v>3.098581666666667</v>
       </c>
       <c r="N10">
-        <v>14.179842</v>
+        <v>9.295745</v>
       </c>
       <c r="O10">
-        <v>0.2368725894750656</v>
+        <v>0.2720807120772349</v>
       </c>
       <c r="P10">
-        <v>0.2368725894750656</v>
+        <v>0.2720807120772348</v>
       </c>
       <c r="Q10">
-        <v>4.278379741152001</v>
+        <v>2.822460857186667</v>
       </c>
       <c r="R10">
-        <v>38.505417670368</v>
+        <v>25.40214771468</v>
       </c>
       <c r="S10">
-        <v>0.001776912659576688</v>
+        <v>0.002059900957735152</v>
       </c>
       <c r="T10">
-        <v>0.001776912659576688</v>
+        <v>0.002059900957735151</v>
       </c>
     </row>
   </sheetData>
